--- a/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>79,56%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,11</t>
+          <t>0,0; 12,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 13,88</t>
+          <t>-6,11; 22,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 261,14</t>
+          <t>-40,08; 682,29</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>141,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>57,49%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,6</t>
+          <t>-1,1; 6,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 10,98</t>
+          <t>-0,79; 16,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 546,77</t>
+          <t>-53,54; 938,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 90,96</t>
+          <t>-4,72; 174,15</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,96%</t>
+          <t>-19,65%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,36</t>
+          <t>-2,66; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 1,87</t>
+          <t>-15,09; 6,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-72,54; 332,64</t>
+          <t>-80,13; 713,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 8,44</t>
+          <t>-46,8; 39,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 252,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 39,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>119,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 4,38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 8,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-19,05; 516,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-15,44; 58,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>79,56%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.933112321708088</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.774157759170114</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.6305437160491056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; 22,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-40,08; 682,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.660470240706571</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.5023622012577686</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.68880539957758</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.575294939067</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>5.540807167367622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>141,88%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>57,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 6,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 16,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-53,54; 938,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 174,15</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.519370603446365</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.479826348795031</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.435200374709497</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.6253818790555581</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>57,65%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-19,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.12552362967612</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.83070502058409</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5204286285690485</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.05425342886865554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 5,2</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,09; 6,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-80,13; 713,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-46,8; 39,29</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.201549015947425</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.93943953971962</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>9.809695842754975</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.837514021692943</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +714,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.400619925398467</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.0042445069735</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.6871921749197039</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1534371620220056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.203329271304039</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.0502979816462</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.7820071488144377</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.436361390318795</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.096870972785052</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.485735177851391</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>7.696209729330368</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.4283170818212154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>119,54%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 4,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 8,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,05; 516,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 58,98</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.133991558586314</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.619992174965545</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.317668374153718</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2033674749570253</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.05685958171182252</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.038540414812143</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1469109981449295</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1471907795775545</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.495297994533154</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.492187428851414</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>5.68388147870536</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6170535306042048</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
